--- a/04_Private-Cloud/wg1.38.xlsx
+++ b/04_Private-Cloud/wg1.38.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24722"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_3a19\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sm\Documents\Project-Future\04_Private-Cloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{8738025C-D22F-49E5-91E0-13E9E30E0282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FE92363-A7B3-4B44-8C0D-911C33AB400D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECF0544-4809-4A5F-8581-171561ADB89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -31,319 +31,628 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
-  <si>
-    <t>No,IP-Adresse,Key</t>
-  </si>
-  <si>
-    <t>2,10.1.38.2,4DhcQCRHSQYzW2mRGgQuyUwJynXv1DjIxXCkFATIkmc=</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="205">
   <si>
     <t>Schmidli</t>
   </si>
   <si>
-    <t>3,10.1.38.3,cAdsZ14r71tt/kPTh0hFeUajr8GMR9d9ZdnXD5e4538=</t>
-  </si>
-  <si>
     <t>Verboon</t>
   </si>
   <si>
-    <t>4,10.1.38.4,KOLniByB9NK5QYSNiadFOEOc/mkdcFwa9NdC3vF8y34=</t>
-  </si>
-  <si>
     <t>Goetzer</t>
   </si>
   <si>
-    <t>5,10.1.38.5,GBe2yX0l+/W832ngSX6uTSpHhrIHx1e1jvv4hqyG634=</t>
-  </si>
-  <si>
-    <t>6,10.1.38.6,iCL/XOxnWe1eRteO+LVKRkNo+roXrWG0XLQnxBW++EA=</t>
-  </si>
-  <si>
-    <t>7,10.1.38.7,ELJ+5Ettken0ntUlca2GK6HV0IAvY5CP3zdufLfqfXs=</t>
-  </si>
-  <si>
-    <t>8,10.1.38.8,iK6AocD0Gc3+AKf4Z/GZKBsIHIOBAEzqpbb7r1khi1o=</t>
-  </si>
-  <si>
-    <t>9,10.1.38.9,0JaNtS5PxKEO1lGUaMfzJvcSopLwU6kGKEFeQS+5+2Y=</t>
-  </si>
-  <si>
-    <t>10,10.1.38.10,cCUd0ceA7h6rbhkyTyMsYYM0I1cfJ54iTyvUeVYENmo=</t>
-  </si>
-  <si>
-    <t>11,10.1.38.11,sMWQ6vdQVu1eNsFuru3Msp4FCLNODoWsdjnEAXBkB3I=</t>
-  </si>
-  <si>
-    <t>12,10.1.38.12,gKpDrWYkdF5COEjl+LmEHpJe79yRBJvjg4uxMaFrbFc=</t>
-  </si>
-  <si>
-    <t>13,10.1.38.13,CDEg71SXBcuNASrtBd4zKMnLYOLyW/rR56wLrNOCsn4=</t>
-  </si>
-  <si>
-    <t>14,10.1.38.14,0KS4/bNC+h7Db3bHj5lIgjQBHRdSHCDTAfVrgxhbDGA=</t>
-  </si>
-  <si>
-    <t>15,10.1.38.15,GHrcHBkH4WIW/PhKj9E7JckTvYJThq2bHsYKrzTuCmA=</t>
-  </si>
-  <si>
-    <t>16,10.1.38.16,KHeGusSxfLdV2GU5CE1+iE54Squ19E6phXyzafTfIGM=</t>
-  </si>
-  <si>
-    <t>17,10.1.38.17,AAPVXWOp2W4DaQ993gwe1PoQSwkCyvht7jS0Ev/OYEU=</t>
-  </si>
-  <si>
-    <t>18,10.1.38.18,oDDOu/EVnXG0Zce4GjGOeLEuFC3IoieXISv+5SB2InE=</t>
-  </si>
-  <si>
-    <t>19,10.1.38.19,QH1gD8mTo39L4Rs/vk5WPvEFGjIeiFEnXEbqMJuz03g=</t>
-  </si>
-  <si>
-    <t>20,10.1.38.20,iAzmaXeVF4GFHDGhsRvYU2coI98ky0py91NDrZCqo1g=</t>
-  </si>
-  <si>
-    <t>21,10.1.38.21,mGme2YayGytlcprek8l9PPnjPOQqtBpMm2MBQhZSWX0=</t>
-  </si>
-  <si>
-    <t>22,10.1.38.22,mJAJy2rVArZzm0v5zNxA1S8GE12YIpepbvzgA2OwAFY=</t>
-  </si>
-  <si>
-    <t>23,10.1.38.23,EDrwoHyPxvDcOsoaTHoAMz2T9iR3o2JasW0JfB6S+HU=</t>
-  </si>
-  <si>
-    <t>24,10.1.38.24,KJQkhN8nIsfcPDpmzFPeg3xzZxKRGDCXHOrFjV2CcHw=</t>
-  </si>
-  <si>
-    <t>25,10.1.38.25,EBpnzS5UrcDsA7aphU2FVtfvENvkClwUJzmabc2oyXA=</t>
-  </si>
-  <si>
-    <t>26,10.1.38.26,aK2XqC1fS+INfxu7H4iHEbiBVvRI1EtvHUOAT8S0EVU=</t>
-  </si>
-  <si>
-    <t>27,10.1.38.27,qDsbTrLHNHv1I/gPobE/LDY7tobZEdA65F5P7LgH734=</t>
-  </si>
-  <si>
-    <t>28,10.1.38.28,oHgo8qVjzfh0PatyFREPfuXmcrAehwK/ODqUAMl651c=</t>
-  </si>
-  <si>
-    <t>29,10.1.38.29,QEDN8WBCLq67qZtPO1RkiphQVuGEZbsu5UVuzA2al3E=</t>
-  </si>
-  <si>
-    <t>30,10.1.38.30,+OMprDNqcg5BYI4/tHtMo0xWZr0Q9tjQy0AlMoetX3M=</t>
-  </si>
-  <si>
-    <t>31,10.1.38.31,eFC/NeGy2KwdJ1Nu6LFiAh0tEmN0bIeaPLS0MM6vNFA=</t>
-  </si>
-  <si>
-    <t>32,10.1.38.32,UPWIAx2fbhZDkqtxFrPy33MvhU5r2Dae7OHyJq1ClGs=</t>
-  </si>
-  <si>
-    <t>33,10.1.38.33,SKtw7LM3ygTOny4JD8VJRmoD0S7Qre7W/FS4wsVcNHE=</t>
-  </si>
-  <si>
-    <t>34,10.1.38.34,mOVT35sdYkTv/OWv7BU3wMXFCVqcrIkZzN8VDc86EUY=</t>
-  </si>
-  <si>
-    <t>35,10.1.38.35,WBUOCoUA9PCwE2oEA7+xMKw70YKAmL0Zl3Bgzm5xJ0Y=</t>
-  </si>
-  <si>
-    <t>36,10.1.38.36,2HDmx7TsVmDYvCRhP+OetUMxBk2BStNGYtqyGchZ42M=</t>
-  </si>
-  <si>
-    <t>37,10.1.38.37,yHde/LmkfMDDAaUnmK/6SCA9uqZJikx1BwQ0k45522o=</t>
-  </si>
-  <si>
-    <t>38,10.1.38.38,CI3KuWCnyD3ztz/STp9lgYExN/PqoVNad6/cWfLyHmM=</t>
-  </si>
-  <si>
-    <t>39,10.1.38.39,cGxpiz5psILazV0EF8zmz0D5sMTM4BE+y0G3+lfwOGk=</t>
-  </si>
-  <si>
-    <t>40,10.1.38.40,SLzpK1QMjbvO/dXr5BKd6W57NkV3ZULCPdSyxlhrQlE=</t>
-  </si>
-  <si>
-    <t>41,10.1.38.41,cD/3DuiSNAaGX9OS9+A+Ilt2XkZJMIzQtej8BaUmTE8=</t>
-  </si>
-  <si>
-    <t>42,10.1.38.42,mFrpkK5QxZJwb9UcxShMJTC1+SMNh/VmFXcGBNwetG0=</t>
-  </si>
-  <si>
-    <t>43,10.1.38.43,ADh5a+ph9Pkp6AymYlWi6yRm3A77uyFl3AhmJ0JLvEo=</t>
-  </si>
-  <si>
-    <t>44,10.1.38.44,gGNlnO6o+LMeLrxM03JUyDSaojEYA4H9L//hobPlKEk=</t>
-  </si>
-  <si>
-    <t>45,10.1.38.45,4JhwDUg+a/G0Yq0ohgBgE1irNCXhI0lOv5kIinlRpUM=</t>
-  </si>
-  <si>
-    <t>46,10.1.38.46,yF46GF6MUjWMGsEEZqqNmhY9DUjIMjwYn5JJPtGkHko=</t>
-  </si>
-  <si>
-    <t>47,10.1.38.47,qLsK88kUvXBsirU3mfHRADtg2nhbY00l3tIyymt3VHk=</t>
-  </si>
-  <si>
-    <t>48,10.1.38.48,OCPlmmrI0zuI57V0tLUhGlfbS3qg72UJZtOpypC/eVk=</t>
-  </si>
-  <si>
-    <t>49,10.1.38.49,wEikDaWLwT39awHCUF36OjWytYP17JbLN3aPD+H+kk8=</t>
-  </si>
-  <si>
-    <t>50,10.1.38.50,YHbs97mgWY4x46RIphBBEp9IDdbfFbqXCii4xzC07mI=</t>
-  </si>
-  <si>
-    <t>51,10.1.38.51,iCkldJ2NBgm8cyXVD1P6Fn6dRmZ/J660yxvuWA3udlw=</t>
-  </si>
-  <si>
-    <t>52,10.1.38.52,wF+Mfh5v6MHH4Aab6jIALyi1N0M+h7975yZRKg883G8=</t>
-  </si>
-  <si>
-    <t>53,10.1.38.53,mP+6Pf2qeVbIlHqyJpbWsdSKLNSOiirw9/+OE7Nc6Us=</t>
-  </si>
-  <si>
-    <t>54,10.1.38.54,4PTzre5XvXfcSh8pMwFBJiPu+xYWs1Wr+3tqnvkaMXQ=</t>
-  </si>
-  <si>
-    <t>55,10.1.38.55,kB6ciuAMFjVsPoZG1e6Xm/lOaLN2ilegjahhTzFHIX0=</t>
-  </si>
-  <si>
-    <t>56,10.1.38.56,oLQUsSCF6TcSTM7mY8OCfG7MXKKuZkCLzbXBXBulS3c=</t>
-  </si>
-  <si>
-    <t>57,10.1.38.57,cD0Ugr+QV+RtAFdVPNmPddFjMsYvPc9JfZamftzwaHs=</t>
-  </si>
-  <si>
-    <t>58,10.1.38.58,MPLQLw5Fwi41oJQWZjVkPm2sM3MhWGmRcA9SHeJJ0UA=</t>
-  </si>
-  <si>
-    <t>59,10.1.38.59,+Jq1GQoXZDRYP87qoSyzgQZ8BrliXFcuJ10y0A+Ib1k=</t>
-  </si>
-  <si>
-    <t>60,10.1.38.60,aASIdSZi/xlI2Wrf/Ad0k6AYMEccRN6FcMn69LIej3w=</t>
-  </si>
-  <si>
-    <t>61,10.1.38.61,YKTMqTq++LUptHJOoA9TkO4zKtionN8Z52s870bnwkc=</t>
-  </si>
-  <si>
-    <t>62,10.1.38.62,GLP5zN8ViWFx7idDokYR8UaHfkXnd02JH61yajhmI0I=</t>
-  </si>
-  <si>
-    <t>63,10.1.38.63,MPpvEbEhkaPca+AE00/zaNiE7tJD296H2+0DwSQe/0E=</t>
-  </si>
-  <si>
-    <t>64,10.1.38.64,AGizu5/Iofu3C4ax9hGukXW+5lFFYQM205ZXIV+Uznk=</t>
-  </si>
-  <si>
-    <t>65,10.1.38.65,cPsUhevv0vay/ONn1ibVhw2fc6Dizq5pv0tOtfIty1M=</t>
-  </si>
-  <si>
-    <t>66,10.1.38.66,YHqn6QHjSva7R/9zrbo1KNEqMVXVYtf/rA3qL0OpglA=</t>
-  </si>
-  <si>
-    <t>67,10.1.38.67,aP6NVsQ83VqesqRCKD/3b1d41APk3uXIvYUL5+IBVnQ=</t>
-  </si>
-  <si>
-    <t>68,10.1.38.68,2Fv6s9x204P0Rwau9v40FTtbeVLVB/xgn6YblxgsBH0=</t>
-  </si>
-  <si>
-    <t>69,10.1.38.69,KHsU4yHnHX076ZR8/DzBRwhZ4HGwogn9AN58oFN5tVE=</t>
-  </si>
-  <si>
-    <t>70,10.1.38.70,uBtZop0CPl/eG1j+vNoA8qjOz8pPgvuv2TqF+zfHHVM=</t>
-  </si>
-  <si>
-    <t>71,10.1.38.71,UPecDiiFXXx8ZHwttLX9DoYDJCkRVYeb702AjMvytFk=</t>
-  </si>
-  <si>
-    <t>72,10.1.38.72,iHXMfQ08sKO6x9bAAGgOPzp/g5p97ZyJlXB67e36x3o=</t>
-  </si>
-  <si>
-    <t>73,10.1.38.73,8HJz4KKjDWLfMR13ZJesRF2jSgrt1tBB5oP0yppku3U=</t>
-  </si>
-  <si>
-    <t>74,10.1.38.74,QP2CO14/NUp5Chk1oSxSXl1drf5vSY2MW6Nm44tDa2w=</t>
-  </si>
-  <si>
-    <t>75,10.1.38.75,cAAYRsaIUXwrtgwTzlXmh/WTsItku/D8H8kF3tOYX3M=</t>
-  </si>
-  <si>
-    <t>76,10.1.38.76,iMvAy1pz0Dp+b7WrmDF8Dq6MBhFXWZr9Rq3RLwFnWmg=</t>
-  </si>
-  <si>
-    <t>77,10.1.38.77,wAWnfU6HlIBuT1XfKAlCvkzXSx2BQdInHkT2B+gAw3g=</t>
-  </si>
-  <si>
-    <t>78,10.1.38.78,+FeryU40J+RzBytUHDPpT6i/dbFZVWlSArhDSjFJtnw=</t>
-  </si>
-  <si>
-    <t>79,10.1.38.79,UGVSFmzAYfqIkIdvXl541M3/d31WjcGTCvhbHOK8U1w=</t>
-  </si>
-  <si>
-    <t>80,10.1.38.80,CA1DKVtkCNd4DbVPERa9NtanmXSBPjBc1FAj6z9cqnQ=</t>
-  </si>
-  <si>
-    <t>81,10.1.38.81,+N6fgoSYi8uDmSjlluKI5EIH//vQbs9mnrVq/q4yFlo=</t>
-  </si>
-  <si>
-    <t>82,10.1.38.82,YAg/ETMy5KkFYYwDsU6bJIOEcjUm7II8Wg0WwdNP7m0=</t>
-  </si>
-  <si>
-    <t>83,10.1.38.83,WAhoFSC3zK9AjV2HtLhGv8MY7N2qiyPpwf801P6OXGI=</t>
-  </si>
-  <si>
-    <t>84,10.1.38.84,KGfY08xQ5WtgJ/LGXYeoGrg4fKezoXe6qf/FoKI/Z1s=</t>
-  </si>
-  <si>
-    <t>85,10.1.38.85,sPVzGo+Ex2It7dH2Xb6M0iUavePiN5ZDpNJLGl5Jgk8=</t>
-  </si>
-  <si>
-    <t>86,10.1.38.86,0JR8DPip5iokCISQYhVBLFNhXOYoOjnNjq0ChnfEMFc=</t>
-  </si>
-  <si>
-    <t>87,10.1.38.87,kFv9/IgCoG0Yq2skifnRZwJoWW8RLww5NwxHx1w/SEI=</t>
-  </si>
-  <si>
-    <t>88,10.1.38.88,yHOWVm3qEUCvx5d6gQXDYF1bAtV+pmO9PUyMd0Vko3Y=</t>
-  </si>
-  <si>
-    <t>89,10.1.38.89,QBSX8UtgBqrvb9DXBatGGhaNFsMXG3kuuWsqs4zhCmA=</t>
-  </si>
-  <si>
-    <t>90,10.1.38.90,0MR0cIByir9RFHDs6Sg7WGq5HIscyCPyozA1sGunFFY=</t>
-  </si>
-  <si>
-    <t>91,10.1.38.91,IJKRaqEPdYdZT0RQ3OsNG/cl9OaiOVyZ2VoDiBDMvmI=</t>
-  </si>
-  <si>
-    <t>92,10.1.38.92,GJ7sesj0vT28uc8LxLhTmBxRgw2bY3ajaDRuhrJq5Hs=</t>
-  </si>
-  <si>
-    <t>93,10.1.38.93,SC1qmqVv9aOjrjbhpY4yyAO1inuigR2wZwGrsudOYkI=</t>
-  </si>
-  <si>
-    <t>94,10.1.38.94,0Pa+fnbALdITyc/CWkDfG/VBRR6T3FMQsy8Tdhrm1mo=</t>
-  </si>
-  <si>
-    <t>95,10.1.38.95,SC/QvbVgR6UfxtLUDz+13j3z3wTkCufqa3NODytta2A=</t>
-  </si>
-  <si>
-    <t>96,10.1.38.96,0CzIuAPopcd0RZLmaUn3BzOhT+R8T+hdgip+HPQUlE0=</t>
-  </si>
-  <si>
-    <t>97,10.1.38.97,AFUm0utvEQYI1rjpXhxFOqyJedQ0A+HAr+fN2OQlIV8=</t>
-  </si>
-  <si>
-    <t>98,10.1.38.98,8Nitq85KhAOpVlKQN1ShzeQUDSCtHTgF4rlku1YO2EI=</t>
-  </si>
-  <si>
-    <t>99,10.1.38.99,6Ntcx3tO5Pnh03sLzA6zA18knIVET2VXsboIiZ+IsVg=</t>
+    <t>VM Azure</t>
+  </si>
+  <si>
+    <t>VM MAAS</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>IP-Adresse</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>10.1.38.2</t>
+  </si>
+  <si>
+    <t>4DhcQCRHSQYzW2mRGgQuyUwJynXv1DjIxXCkFATIkmc=</t>
+  </si>
+  <si>
+    <t>10.1.38.3</t>
+  </si>
+  <si>
+    <t>cAdsZ14r71tt/kPTh0hFeUajr8GMR9d9ZdnXD5e4538=</t>
+  </si>
+  <si>
+    <t>10.1.38.4</t>
+  </si>
+  <si>
+    <t>KOLniByB9NK5QYSNiadFOEOc/mkdcFwa9NdC3vF8y34=</t>
+  </si>
+  <si>
+    <t>10.1.38.5</t>
+  </si>
+  <si>
+    <t>GBe2yX0l+/W832ngSX6uTSpHhrIHx1e1jvv4hqyG634=</t>
+  </si>
+  <si>
+    <t>10.1.38.6</t>
+  </si>
+  <si>
+    <t>iCL/XOxnWe1eRteO+LVKRkNo+roXrWG0XLQnxBW++EA=</t>
+  </si>
+  <si>
+    <t>10.1.38.7</t>
+  </si>
+  <si>
+    <t>ELJ+5Ettken0ntUlca2GK6HV0IAvY5CP3zdufLfqfXs=</t>
+  </si>
+  <si>
+    <t>10.1.38.8</t>
+  </si>
+  <si>
+    <t>iK6AocD0Gc3+AKf4Z/GZKBsIHIOBAEzqpbb7r1khi1o=</t>
+  </si>
+  <si>
+    <t>10.1.38.9</t>
+  </si>
+  <si>
+    <t>0JaNtS5PxKEO1lGUaMfzJvcSopLwU6kGKEFeQS+5+2Y=</t>
+  </si>
+  <si>
+    <t>10.1.38.10</t>
+  </si>
+  <si>
+    <t>cCUd0ceA7h6rbhkyTyMsYYM0I1cfJ54iTyvUeVYENmo=</t>
+  </si>
+  <si>
+    <t>10.1.38.11</t>
+  </si>
+  <si>
+    <t>sMWQ6vdQVu1eNsFuru3Msp4FCLNODoWsdjnEAXBkB3I=</t>
+  </si>
+  <si>
+    <t>10.1.38.12</t>
+  </si>
+  <si>
+    <t>gKpDrWYkdF5COEjl+LmEHpJe79yRBJvjg4uxMaFrbFc=</t>
+  </si>
+  <si>
+    <t>10.1.38.13</t>
+  </si>
+  <si>
+    <t>CDEg71SXBcuNASrtBd4zKMnLYOLyW/rR56wLrNOCsn4=</t>
+  </si>
+  <si>
+    <t>10.1.38.14</t>
+  </si>
+  <si>
+    <t>0KS4/bNC+h7Db3bHj5lIgjQBHRdSHCDTAfVrgxhbDGA=</t>
+  </si>
+  <si>
+    <t>10.1.38.15</t>
+  </si>
+  <si>
+    <t>GHrcHBkH4WIW/PhKj9E7JckTvYJThq2bHsYKrzTuCmA=</t>
+  </si>
+  <si>
+    <t>10.1.38.16</t>
+  </si>
+  <si>
+    <t>KHeGusSxfLdV2GU5CE1+iE54Squ19E6phXyzafTfIGM=</t>
+  </si>
+  <si>
+    <t>10.1.38.17</t>
+  </si>
+  <si>
+    <t>AAPVXWOp2W4DaQ993gwe1PoQSwkCyvht7jS0Ev/OYEU=</t>
+  </si>
+  <si>
+    <t>10.1.38.18</t>
+  </si>
+  <si>
+    <t>oDDOu/EVnXG0Zce4GjGOeLEuFC3IoieXISv+5SB2InE=</t>
+  </si>
+  <si>
+    <t>10.1.38.19</t>
+  </si>
+  <si>
+    <t>QH1gD8mTo39L4Rs/vk5WPvEFGjIeiFEnXEbqMJuz03g=</t>
+  </si>
+  <si>
+    <t>10.1.38.20</t>
+  </si>
+  <si>
+    <t>iAzmaXeVF4GFHDGhsRvYU2coI98ky0py91NDrZCqo1g=</t>
+  </si>
+  <si>
+    <t>10.1.38.21</t>
+  </si>
+  <si>
+    <t>mGme2YayGytlcprek8l9PPnjPOQqtBpMm2MBQhZSWX0=</t>
+  </si>
+  <si>
+    <t>10.1.38.22</t>
+  </si>
+  <si>
+    <t>mJAJy2rVArZzm0v5zNxA1S8GE12YIpepbvzgA2OwAFY=</t>
+  </si>
+  <si>
+    <t>10.1.38.23</t>
+  </si>
+  <si>
+    <t>EDrwoHyPxvDcOsoaTHoAMz2T9iR3o2JasW0JfB6S+HU=</t>
+  </si>
+  <si>
+    <t>10.1.38.24</t>
+  </si>
+  <si>
+    <t>KJQkhN8nIsfcPDpmzFPeg3xzZxKRGDCXHOrFjV2CcHw=</t>
+  </si>
+  <si>
+    <t>10.1.38.25</t>
+  </si>
+  <si>
+    <t>EBpnzS5UrcDsA7aphU2FVtfvENvkClwUJzmabc2oyXA=</t>
+  </si>
+  <si>
+    <t>10.1.38.26</t>
+  </si>
+  <si>
+    <t>aK2XqC1fS+INfxu7H4iHEbiBVvRI1EtvHUOAT8S0EVU=</t>
+  </si>
+  <si>
+    <t>10.1.38.27</t>
+  </si>
+  <si>
+    <t>qDsbTrLHNHv1I/gPobE/LDY7tobZEdA65F5P7LgH734=</t>
+  </si>
+  <si>
+    <t>10.1.38.28</t>
+  </si>
+  <si>
+    <t>oHgo8qVjzfh0PatyFREPfuXmcrAehwK/ODqUAMl651c=</t>
+  </si>
+  <si>
+    <t>10.1.38.29</t>
+  </si>
+  <si>
+    <t>QEDN8WBCLq67qZtPO1RkiphQVuGEZbsu5UVuzA2al3E=</t>
+  </si>
+  <si>
+    <t>10.1.38.30</t>
+  </si>
+  <si>
+    <t>+OMprDNqcg5BYI4/tHtMo0xWZr0Q9tjQy0AlMoetX3M=</t>
+  </si>
+  <si>
+    <t>10.1.38.31</t>
+  </si>
+  <si>
+    <t>eFC/NeGy2KwdJ1Nu6LFiAh0tEmN0bIeaPLS0MM6vNFA=</t>
+  </si>
+  <si>
+    <t>10.1.38.32</t>
+  </si>
+  <si>
+    <t>UPWIAx2fbhZDkqtxFrPy33MvhU5r2Dae7OHyJq1ClGs=</t>
+  </si>
+  <si>
+    <t>10.1.38.33</t>
+  </si>
+  <si>
+    <t>SKtw7LM3ygTOny4JD8VJRmoD0S7Qre7W/FS4wsVcNHE=</t>
+  </si>
+  <si>
+    <t>10.1.38.34</t>
+  </si>
+  <si>
+    <t>mOVT35sdYkTv/OWv7BU3wMXFCVqcrIkZzN8VDc86EUY=</t>
+  </si>
+  <si>
+    <t>10.1.38.35</t>
+  </si>
+  <si>
+    <t>WBUOCoUA9PCwE2oEA7+xMKw70YKAmL0Zl3Bgzm5xJ0Y=</t>
+  </si>
+  <si>
+    <t>10.1.38.36</t>
+  </si>
+  <si>
+    <t>2HDmx7TsVmDYvCRhP+OetUMxBk2BStNGYtqyGchZ42M=</t>
+  </si>
+  <si>
+    <t>10.1.38.37</t>
+  </si>
+  <si>
+    <t>yHde/LmkfMDDAaUnmK/6SCA9uqZJikx1BwQ0k45522o=</t>
+  </si>
+  <si>
+    <t>10.1.38.38</t>
+  </si>
+  <si>
+    <t>CI3KuWCnyD3ztz/STp9lgYExN/PqoVNad6/cWfLyHmM=</t>
+  </si>
+  <si>
+    <t>10.1.38.39</t>
+  </si>
+  <si>
+    <t>cGxpiz5psILazV0EF8zmz0D5sMTM4BE+y0G3+lfwOGk=</t>
+  </si>
+  <si>
+    <t>10.1.38.40</t>
+  </si>
+  <si>
+    <t>SLzpK1QMjbvO/dXr5BKd6W57NkV3ZULCPdSyxlhrQlE=</t>
+  </si>
+  <si>
+    <t>10.1.38.41</t>
+  </si>
+  <si>
+    <t>cD/3DuiSNAaGX9OS9+A+Ilt2XkZJMIzQtej8BaUmTE8=</t>
+  </si>
+  <si>
+    <t>10.1.38.42</t>
+  </si>
+  <si>
+    <t>mFrpkK5QxZJwb9UcxShMJTC1+SMNh/VmFXcGBNwetG0=</t>
+  </si>
+  <si>
+    <t>10.1.38.43</t>
+  </si>
+  <si>
+    <t>ADh5a+ph9Pkp6AymYlWi6yRm3A77uyFl3AhmJ0JLvEo=</t>
+  </si>
+  <si>
+    <t>10.1.38.44</t>
+  </si>
+  <si>
+    <t>gGNlnO6o+LMeLrxM03JUyDSaojEYA4H9L//hobPlKEk=</t>
+  </si>
+  <si>
+    <t>10.1.38.45</t>
+  </si>
+  <si>
+    <t>4JhwDUg+a/G0Yq0ohgBgE1irNCXhI0lOv5kIinlRpUM=</t>
+  </si>
+  <si>
+    <t>10.1.38.46</t>
+  </si>
+  <si>
+    <t>yF46GF6MUjWMGsEEZqqNmhY9DUjIMjwYn5JJPtGkHko=</t>
+  </si>
+  <si>
+    <t>10.1.38.47</t>
+  </si>
+  <si>
+    <t>qLsK88kUvXBsirU3mfHRADtg2nhbY00l3tIyymt3VHk=</t>
+  </si>
+  <si>
+    <t>10.1.38.48</t>
+  </si>
+  <si>
+    <t>OCPlmmrI0zuI57V0tLUhGlfbS3qg72UJZtOpypC/eVk=</t>
+  </si>
+  <si>
+    <t>10.1.38.49</t>
+  </si>
+  <si>
+    <t>wEikDaWLwT39awHCUF36OjWytYP17JbLN3aPD+H+kk8=</t>
+  </si>
+  <si>
+    <t>10.1.38.50</t>
+  </si>
+  <si>
+    <t>YHbs97mgWY4x46RIphBBEp9IDdbfFbqXCii4xzC07mI=</t>
+  </si>
+  <si>
+    <t>10.1.38.51</t>
+  </si>
+  <si>
+    <t>iCkldJ2NBgm8cyXVD1P6Fn6dRmZ/J660yxvuWA3udlw=</t>
+  </si>
+  <si>
+    <t>10.1.38.52</t>
+  </si>
+  <si>
+    <t>wF+Mfh5v6MHH4Aab6jIALyi1N0M+h7975yZRKg883G8=</t>
+  </si>
+  <si>
+    <t>10.1.38.53</t>
+  </si>
+  <si>
+    <t>mP+6Pf2qeVbIlHqyJpbWsdSKLNSOiirw9/+OE7Nc6Us=</t>
+  </si>
+  <si>
+    <t>10.1.38.54</t>
+  </si>
+  <si>
+    <t>4PTzre5XvXfcSh8pMwFBJiPu+xYWs1Wr+3tqnvkaMXQ=</t>
+  </si>
+  <si>
+    <t>10.1.38.55</t>
+  </si>
+  <si>
+    <t>kB6ciuAMFjVsPoZG1e6Xm/lOaLN2ilegjahhTzFHIX0=</t>
+  </si>
+  <si>
+    <t>10.1.38.56</t>
+  </si>
+  <si>
+    <t>oLQUsSCF6TcSTM7mY8OCfG7MXKKuZkCLzbXBXBulS3c=</t>
+  </si>
+  <si>
+    <t>10.1.38.57</t>
+  </si>
+  <si>
+    <t>cD0Ugr+QV+RtAFdVPNmPddFjMsYvPc9JfZamftzwaHs=</t>
+  </si>
+  <si>
+    <t>10.1.38.58</t>
+  </si>
+  <si>
+    <t>MPLQLw5Fwi41oJQWZjVkPm2sM3MhWGmRcA9SHeJJ0UA=</t>
+  </si>
+  <si>
+    <t>10.1.38.59</t>
+  </si>
+  <si>
+    <t>+Jq1GQoXZDRYP87qoSyzgQZ8BrliXFcuJ10y0A+Ib1k=</t>
+  </si>
+  <si>
+    <t>10.1.38.60</t>
+  </si>
+  <si>
+    <t>aASIdSZi/xlI2Wrf/Ad0k6AYMEccRN6FcMn69LIej3w=</t>
+  </si>
+  <si>
+    <t>10.1.38.61</t>
+  </si>
+  <si>
+    <t>YKTMqTq++LUptHJOoA9TkO4zKtionN8Z52s870bnwkc=</t>
+  </si>
+  <si>
+    <t>10.1.38.62</t>
+  </si>
+  <si>
+    <t>GLP5zN8ViWFx7idDokYR8UaHfkXnd02JH61yajhmI0I=</t>
+  </si>
+  <si>
+    <t>10.1.38.63</t>
+  </si>
+  <si>
+    <t>MPpvEbEhkaPca+AE00/zaNiE7tJD296H2+0DwSQe/0E=</t>
+  </si>
+  <si>
+    <t>10.1.38.64</t>
+  </si>
+  <si>
+    <t>AGizu5/Iofu3C4ax9hGukXW+5lFFYQM205ZXIV+Uznk=</t>
+  </si>
+  <si>
+    <t>10.1.38.65</t>
+  </si>
+  <si>
+    <t>cPsUhevv0vay/ONn1ibVhw2fc6Dizq5pv0tOtfIty1M=</t>
+  </si>
+  <si>
+    <t>10.1.38.66</t>
+  </si>
+  <si>
+    <t>YHqn6QHjSva7R/9zrbo1KNEqMVXVYtf/rA3qL0OpglA=</t>
+  </si>
+  <si>
+    <t>10.1.38.67</t>
+  </si>
+  <si>
+    <t>aP6NVsQ83VqesqRCKD/3b1d41APk3uXIvYUL5+IBVnQ=</t>
+  </si>
+  <si>
+    <t>10.1.38.68</t>
+  </si>
+  <si>
+    <t>2Fv6s9x204P0Rwau9v40FTtbeVLVB/xgn6YblxgsBH0=</t>
+  </si>
+  <si>
+    <t>10.1.38.69</t>
+  </si>
+  <si>
+    <t>KHsU4yHnHX076ZR8/DzBRwhZ4HGwogn9AN58oFN5tVE=</t>
+  </si>
+  <si>
+    <t>10.1.38.70</t>
+  </si>
+  <si>
+    <t>uBtZop0CPl/eG1j+vNoA8qjOz8pPgvuv2TqF+zfHHVM=</t>
+  </si>
+  <si>
+    <t>10.1.38.71</t>
+  </si>
+  <si>
+    <t>UPecDiiFXXx8ZHwttLX9DoYDJCkRVYeb702AjMvytFk=</t>
+  </si>
+  <si>
+    <t>10.1.38.72</t>
+  </si>
+  <si>
+    <t>iHXMfQ08sKO6x9bAAGgOPzp/g5p97ZyJlXB67e36x3o=</t>
+  </si>
+  <si>
+    <t>10.1.38.73</t>
+  </si>
+  <si>
+    <t>8HJz4KKjDWLfMR13ZJesRF2jSgrt1tBB5oP0yppku3U=</t>
+  </si>
+  <si>
+    <t>10.1.38.74</t>
+  </si>
+  <si>
+    <t>QP2CO14/NUp5Chk1oSxSXl1drf5vSY2MW6Nm44tDa2w=</t>
+  </si>
+  <si>
+    <t>10.1.38.75</t>
+  </si>
+  <si>
+    <t>cAAYRsaIUXwrtgwTzlXmh/WTsItku/D8H8kF3tOYX3M=</t>
+  </si>
+  <si>
+    <t>10.1.38.76</t>
+  </si>
+  <si>
+    <t>iMvAy1pz0Dp+b7WrmDF8Dq6MBhFXWZr9Rq3RLwFnWmg=</t>
+  </si>
+  <si>
+    <t>10.1.38.77</t>
+  </si>
+  <si>
+    <t>wAWnfU6HlIBuT1XfKAlCvkzXSx2BQdInHkT2B+gAw3g=</t>
+  </si>
+  <si>
+    <t>10.1.38.78</t>
+  </si>
+  <si>
+    <t>+FeryU40J+RzBytUHDPpT6i/dbFZVWlSArhDSjFJtnw=</t>
+  </si>
+  <si>
+    <t>10.1.38.79</t>
+  </si>
+  <si>
+    <t>UGVSFmzAYfqIkIdvXl541M3/d31WjcGTCvhbHOK8U1w=</t>
+  </si>
+  <si>
+    <t>10.1.38.80</t>
+  </si>
+  <si>
+    <t>CA1DKVtkCNd4DbVPERa9NtanmXSBPjBc1FAj6z9cqnQ=</t>
+  </si>
+  <si>
+    <t>10.1.38.81</t>
+  </si>
+  <si>
+    <t>+N6fgoSYi8uDmSjlluKI5EIH//vQbs9mnrVq/q4yFlo=</t>
+  </si>
+  <si>
+    <t>10.1.38.82</t>
+  </si>
+  <si>
+    <t>YAg/ETMy5KkFYYwDsU6bJIOEcjUm7II8Wg0WwdNP7m0=</t>
+  </si>
+  <si>
+    <t>10.1.38.83</t>
+  </si>
+  <si>
+    <t>WAhoFSC3zK9AjV2HtLhGv8MY7N2qiyPpwf801P6OXGI=</t>
+  </si>
+  <si>
+    <t>10.1.38.84</t>
+  </si>
+  <si>
+    <t>KGfY08xQ5WtgJ/LGXYeoGrg4fKezoXe6qf/FoKI/Z1s=</t>
+  </si>
+  <si>
+    <t>10.1.38.85</t>
+  </si>
+  <si>
+    <t>sPVzGo+Ex2It7dH2Xb6M0iUavePiN5ZDpNJLGl5Jgk8=</t>
+  </si>
+  <si>
+    <t>10.1.38.86</t>
+  </si>
+  <si>
+    <t>0JR8DPip5iokCISQYhVBLFNhXOYoOjnNjq0ChnfEMFc=</t>
+  </si>
+  <si>
+    <t>10.1.38.87</t>
+  </si>
+  <si>
+    <t>kFv9/IgCoG0Yq2skifnRZwJoWW8RLww5NwxHx1w/SEI=</t>
+  </si>
+  <si>
+    <t>10.1.38.88</t>
+  </si>
+  <si>
+    <t>yHOWVm3qEUCvx5d6gQXDYF1bAtV+pmO9PUyMd0Vko3Y=</t>
+  </si>
+  <si>
+    <t>10.1.38.89</t>
+  </si>
+  <si>
+    <t>QBSX8UtgBqrvb9DXBatGGhaNFsMXG3kuuWsqs4zhCmA=</t>
+  </si>
+  <si>
+    <t>10.1.38.90</t>
+  </si>
+  <si>
+    <t>0MR0cIByir9RFHDs6Sg7WGq5HIscyCPyozA1sGunFFY=</t>
+  </si>
+  <si>
+    <t>10.1.38.91</t>
+  </si>
+  <si>
+    <t>IJKRaqEPdYdZT0RQ3OsNG/cl9OaiOVyZ2VoDiBDMvmI=</t>
+  </si>
+  <si>
+    <t>10.1.38.92</t>
+  </si>
+  <si>
+    <t>GJ7sesj0vT28uc8LxLhTmBxRgw2bY3ajaDRuhrJq5Hs=</t>
+  </si>
+  <si>
+    <t>10.1.38.93</t>
+  </si>
+  <si>
+    <t>SC1qmqVv9aOjrjbhpY4yyAO1inuigR2wZwGrsudOYkI=</t>
+  </si>
+  <si>
+    <t>10.1.38.94</t>
+  </si>
+  <si>
+    <t>0Pa+fnbALdITyc/CWkDfG/VBRR6T3FMQsy8Tdhrm1mo=</t>
+  </si>
+  <si>
+    <t>10.1.38.95</t>
+  </si>
+  <si>
+    <t>SC/QvbVgR6UfxtLUDz+13j3z3wTkCufqa3NODytta2A=</t>
+  </si>
+  <si>
+    <t>10.1.38.96</t>
+  </si>
+  <si>
+    <t>0CzIuAPopcd0RZLmaUn3BzOhT+R8T+hdgip+HPQUlE0=</t>
+  </si>
+  <si>
+    <t>10.1.38.97</t>
+  </si>
+  <si>
+    <t>AFUm0utvEQYI1rjpXhxFOqyJedQ0A+HAr+fN2OQlIV8=</t>
+  </si>
+  <si>
+    <t>10.1.38.98</t>
+  </si>
+  <si>
+    <t>8Nitq85KhAOpVlKQN1ShzeQUDSCtHTgF4rlku1YO2EI=</t>
+  </si>
+  <si>
+    <t>10.1.38.99</t>
+  </si>
+  <si>
+    <t>6Ntcx3tO5Pnh03sLzA6zA18knIVET2VXsboIiZ+IsVg=</t>
+  </si>
+  <si>
+    <t>Verwendet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -881,7 +1190,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1177,516 +1486,1122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:D99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="53.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" t="s">
         <v>3</v>
       </c>
-      <c r="G3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
+      <c r="B28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>30</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
+      <c r="B30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>31</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
+      <c r="B31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>32</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
+      <c r="B32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
+      <c r="B33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>34</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
+      <c r="B34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
+      <c r="B35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>36</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
+      <c r="B36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>37</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
+      <c r="B37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>38</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
+      <c r="B38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>39</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
+      <c r="B39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>40</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
+      <c r="B40" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>41</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
+      <c r="B41" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>42</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
+      <c r="B42" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>43</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
+      <c r="B43" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>44</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
+      <c r="B44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>45</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
+      <c r="B45" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>46</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
+      <c r="B46" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>47</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
+      <c r="B47" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>48</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
+      <c r="B48" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>49</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
+      <c r="B49" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>50</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
+      <c r="B50" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>51</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
+      <c r="B51" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>52</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
+      <c r="B52" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>53</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
+      <c r="B53" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>54</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
+      <c r="B54" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>55</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
+      <c r="B55" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>56</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
+      <c r="B56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>57</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
+      <c r="B57" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>58</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
+      <c r="B58" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>59</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
+      <c r="B59" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>60</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
+      <c r="B60" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>61</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
+      <c r="B61" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>62</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
+      <c r="B62" t="s">
+        <v>128</v>
+      </c>
+      <c r="C62" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>63</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
+      <c r="B63" t="s">
+        <v>130</v>
+      </c>
+      <c r="C63" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>64</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
+      <c r="B64" t="s">
+        <v>132</v>
+      </c>
+      <c r="C64" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>65</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
+      <c r="B65" t="s">
+        <v>134</v>
+      </c>
+      <c r="C65" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
         <v>66</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
+      <c r="B66" t="s">
+        <v>136</v>
+      </c>
+      <c r="C66" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
         <v>67</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
+      <c r="B67" t="s">
+        <v>138</v>
+      </c>
+      <c r="C67" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
         <v>68</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
+      <c r="B68" t="s">
+        <v>140</v>
+      </c>
+      <c r="C68" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>69</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
+      <c r="B69" t="s">
+        <v>142</v>
+      </c>
+      <c r="C69" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
         <v>70</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
+      <c r="B70" t="s">
+        <v>144</v>
+      </c>
+      <c r="C70" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
         <v>71</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
+      <c r="B71" t="s">
+        <v>146</v>
+      </c>
+      <c r="C71" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
         <v>72</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
+      <c r="B72" t="s">
+        <v>148</v>
+      </c>
+      <c r="C72" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
         <v>73</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
+      <c r="B73" t="s">
+        <v>150</v>
+      </c>
+      <c r="C73" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
         <v>74</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
+      <c r="B74" t="s">
+        <v>152</v>
+      </c>
+      <c r="C74" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
         <v>75</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
+      <c r="B75" t="s">
+        <v>154</v>
+      </c>
+      <c r="C75" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
         <v>76</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" t="s">
+      <c r="B76" t="s">
+        <v>156</v>
+      </c>
+      <c r="C76" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
         <v>77</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
+      <c r="B77" t="s">
+        <v>158</v>
+      </c>
+      <c r="C77" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
         <v>78</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" t="s">
+      <c r="B78" t="s">
+        <v>160</v>
+      </c>
+      <c r="C78" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
         <v>79</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" t="s">
+      <c r="B79" t="s">
+        <v>162</v>
+      </c>
+      <c r="C79" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
         <v>80</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" t="s">
+      <c r="B80" t="s">
+        <v>164</v>
+      </c>
+      <c r="C80" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
         <v>81</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
+      <c r="B81" t="s">
+        <v>166</v>
+      </c>
+      <c r="C81" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
         <v>82</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
+      <c r="B82" t="s">
+        <v>168</v>
+      </c>
+      <c r="C82" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
         <v>83</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" t="s">
+      <c r="B83" t="s">
+        <v>170</v>
+      </c>
+      <c r="C83" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
         <v>84</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" t="s">
+      <c r="B84" t="s">
+        <v>172</v>
+      </c>
+      <c r="C84" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
         <v>85</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" t="s">
+      <c r="B85" t="s">
+        <v>174</v>
+      </c>
+      <c r="C85" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
         <v>86</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" t="s">
+      <c r="B86" t="s">
+        <v>176</v>
+      </c>
+      <c r="C86" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
         <v>87</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" t="s">
+      <c r="B87" t="s">
+        <v>178</v>
+      </c>
+      <c r="C87" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
         <v>88</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="s">
+      <c r="B88" t="s">
+        <v>180</v>
+      </c>
+      <c r="C88" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
         <v>89</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" t="s">
+      <c r="B89" t="s">
+        <v>182</v>
+      </c>
+      <c r="C89" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
         <v>90</v>
       </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" t="s">
+      <c r="B90" t="s">
+        <v>184</v>
+      </c>
+      <c r="C90" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
         <v>91</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" t="s">
+      <c r="B91" t="s">
+        <v>186</v>
+      </c>
+      <c r="C91" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
         <v>92</v>
       </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" t="s">
+      <c r="B92" t="s">
+        <v>188</v>
+      </c>
+      <c r="C92" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
         <v>93</v>
       </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" t="s">
+      <c r="B93" t="s">
+        <v>190</v>
+      </c>
+      <c r="C93" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
         <v>94</v>
       </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" t="s">
+      <c r="B94" t="s">
+        <v>192</v>
+      </c>
+      <c r="C94" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
         <v>95</v>
       </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" t="s">
+      <c r="B95" t="s">
+        <v>194</v>
+      </c>
+      <c r="C95" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
         <v>96</v>
       </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" t="s">
+      <c r="B96" t="s">
+        <v>196</v>
+      </c>
+      <c r="C96" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
         <v>97</v>
       </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" t="s">
+      <c r="B97" t="s">
+        <v>198</v>
+      </c>
+      <c r="C97" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
         <v>98</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" t="s">
+      <c r="B98" t="s">
+        <v>200</v>
+      </c>
+      <c r="C98" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
         <v>99</v>
       </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" t="s">
-        <v>101</v>
+      <c r="B99" t="s">
+        <v>202</v>
+      </c>
+      <c r="C99" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -1695,15 +2610,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101004A28CA176F0A4440897C94835471F5DC" ma:contentTypeVersion="2" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="12de65b5981a0d931c95c038d8c72dfe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8eb39577-5af7-4064-893e-16aba828f311" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1c8b83da358176e7bbc638ea083bc7d4" ns2:_="">
     <xsd:import namespace="8eb39577-5af7-4064-893e-16aba828f311"/>
@@ -1851,6 +2757,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1858,13 +2773,36 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85965A7A-3DBA-4538-8515-EACE76FF484B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62369AB4-A716-4338-8FB1-ECBBBFF98B63}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8eb39577-5af7-4064-893e-16aba828f311"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62369AB4-A716-4338-8FB1-ECBBBFF98B63}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85965A7A-3DBA-4538-8515-EACE76FF484B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD5C8350-A767-40EF-9E17-1032A175797A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD5C8350-A767-40EF-9E17-1032A175797A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/04_Private-Cloud/wg1.38.xlsx
+++ b/04_Private-Cloud/wg1.38.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sm\Documents\Project-Future\04_Private-Cloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECF0544-4809-4A5F-8581-171561ADB89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF8542E-7205-4EE9-9427-EDE9195F301F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="0" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="207">
   <si>
     <t>Schmidli</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Goetzer</t>
   </si>
   <si>
-    <t>VM Azure</t>
-  </si>
-  <si>
     <t>VM MAAS</t>
   </si>
   <si>
@@ -646,6 +643,15 @@
   </si>
   <si>
     <t>Verwendet</t>
+  </si>
+  <si>
+    <t>VM Aws DE4</t>
+  </si>
+  <si>
+    <t>VM Azure DE4</t>
+  </si>
+  <si>
+    <t>VM MAAS DE4</t>
   </si>
 </sst>
 </file>
@@ -1488,8 +1494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1499,16 +1505,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
       <c r="D1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1516,10 +1522,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
@@ -1530,10 +1536,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -1544,10 +1550,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
@@ -1558,10 +1564,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1569,10 +1575,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1580,10 +1586,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
         <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1591,10 +1597,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
         <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1602,10 +1608,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
         <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1613,10 +1619,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1624,10 +1630,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
         <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1635,10 +1641,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
         <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1646,10 +1652,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
         <v>30</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1657,10 +1663,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
         <v>32</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1668,10 +1674,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
         <v>34</v>
-      </c>
-      <c r="C15" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1679,10 +1685,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
         <v>36</v>
-      </c>
-      <c r="C16" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1690,10 +1696,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
         <v>38</v>
-      </c>
-      <c r="C17" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1701,10 +1707,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
         <v>40</v>
-      </c>
-      <c r="C18" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1712,10 +1718,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
         <v>42</v>
-      </c>
-      <c r="C19" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1723,13 +1729,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
         <v>44</v>
       </c>
-      <c r="C20" t="s">
-        <v>45</v>
-      </c>
       <c r="D20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1737,13 +1743,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s">
         <v>46</v>
-      </c>
-      <c r="C21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1751,10 +1754,10 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
         <v>48</v>
-      </c>
-      <c r="C22" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1762,10 +1765,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" t="s">
         <v>50</v>
-      </c>
-      <c r="C23" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1773,10 +1776,10 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
         <v>52</v>
-      </c>
-      <c r="C24" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1784,10 +1787,10 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s">
         <v>54</v>
-      </c>
-      <c r="C25" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1795,10 +1798,10 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
         <v>56</v>
-      </c>
-      <c r="C26" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1806,10 +1809,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s">
         <v>58</v>
-      </c>
-      <c r="C27" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1817,10 +1820,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" t="s">
         <v>60</v>
-      </c>
-      <c r="C28" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1828,10 +1831,10 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" t="s">
         <v>62</v>
-      </c>
-      <c r="C29" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1839,10 +1842,10 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" t="s">
         <v>64</v>
-      </c>
-      <c r="C30" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1850,10 +1853,10 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" t="s">
         <v>66</v>
-      </c>
-      <c r="C31" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1861,10 +1864,10 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" t="s">
         <v>68</v>
-      </c>
-      <c r="C32" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1872,10 +1875,10 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" t="s">
         <v>70</v>
-      </c>
-      <c r="C33" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1883,10 +1886,10 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" t="s">
         <v>72</v>
-      </c>
-      <c r="C34" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1894,10 +1897,10 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" t="s">
         <v>74</v>
-      </c>
-      <c r="C35" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1905,10 +1908,10 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" t="s">
         <v>76</v>
-      </c>
-      <c r="C36" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1916,10 +1919,10 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" t="s">
         <v>78</v>
-      </c>
-      <c r="C37" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1927,10 +1930,10 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" t="s">
         <v>80</v>
-      </c>
-      <c r="C38" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1938,10 +1941,10 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" t="s">
         <v>82</v>
-      </c>
-      <c r="C39" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1949,10 +1952,10 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" t="s">
         <v>84</v>
-      </c>
-      <c r="C40" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1960,10 +1963,10 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" t="s">
         <v>86</v>
-      </c>
-      <c r="C41" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1971,10 +1974,10 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" t="s">
         <v>88</v>
-      </c>
-      <c r="C42" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1982,10 +1985,10 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" t="s">
         <v>90</v>
-      </c>
-      <c r="C43" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1993,10 +1996,10 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" t="s">
         <v>92</v>
-      </c>
-      <c r="C44" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -2004,10 +2007,10 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" t="s">
         <v>94</v>
-      </c>
-      <c r="C45" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -2015,10 +2018,10 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" t="s">
         <v>96</v>
-      </c>
-      <c r="C46" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -2026,10 +2029,10 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" t="s">
         <v>98</v>
-      </c>
-      <c r="C47" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -2037,186 +2040,195 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" t="s">
         <v>100</v>
       </c>
-      <c r="C48" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>49</v>
       </c>
       <c r="B49" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" t="s">
         <v>102</v>
       </c>
-      <c r="C49" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>50</v>
       </c>
       <c r="B50" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" t="s">
         <v>104</v>
       </c>
-      <c r="C50" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>51</v>
       </c>
       <c r="B51" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" t="s">
         <v>106</v>
       </c>
-      <c r="C51" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>52</v>
       </c>
       <c r="B52" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" t="s">
         <v>108</v>
       </c>
-      <c r="C52" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>53</v>
       </c>
       <c r="B53" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" t="s">
         <v>110</v>
       </c>
-      <c r="C53" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>54</v>
       </c>
       <c r="B54" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" t="s">
         <v>112</v>
       </c>
-      <c r="C54" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>55</v>
       </c>
       <c r="B55" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" t="s">
         <v>114</v>
       </c>
-      <c r="C55" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>56</v>
       </c>
       <c r="B56" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" t="s">
         <v>116</v>
       </c>
-      <c r="C56" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>57</v>
       </c>
       <c r="B57" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" t="s">
         <v>118</v>
       </c>
-      <c r="C57" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>58</v>
       </c>
       <c r="B58" t="s">
+        <v>119</v>
+      </c>
+      <c r="C58" t="s">
         <v>120</v>
       </c>
-      <c r="C58" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>59</v>
       </c>
       <c r="B59" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" t="s">
         <v>122</v>
       </c>
-      <c r="C59" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>60</v>
       </c>
       <c r="B60" t="s">
+        <v>123</v>
+      </c>
+      <c r="C60" t="s">
         <v>124</v>
       </c>
-      <c r="C60" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>61</v>
       </c>
       <c r="B61" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" t="s">
         <v>126</v>
       </c>
-      <c r="C61" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>62</v>
       </c>
       <c r="B62" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" t="s">
         <v>128</v>
       </c>
-      <c r="C62" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>63</v>
       </c>
       <c r="B63" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63" t="s">
         <v>130</v>
       </c>
-      <c r="C63" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>64</v>
       </c>
       <c r="B64" t="s">
+        <v>131</v>
+      </c>
+      <c r="C64" t="s">
         <v>132</v>
-      </c>
-      <c r="C64" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -2224,10 +2236,10 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
+        <v>133</v>
+      </c>
+      <c r="C65" t="s">
         <v>134</v>
-      </c>
-      <c r="C65" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -2235,10 +2247,10 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
+        <v>135</v>
+      </c>
+      <c r="C66" t="s">
         <v>136</v>
-      </c>
-      <c r="C66" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -2246,10 +2258,10 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
+        <v>137</v>
+      </c>
+      <c r="C67" t="s">
         <v>138</v>
-      </c>
-      <c r="C67" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -2257,10 +2269,10 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
+        <v>139</v>
+      </c>
+      <c r="C68" t="s">
         <v>140</v>
-      </c>
-      <c r="C68" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -2268,10 +2280,10 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
+        <v>141</v>
+      </c>
+      <c r="C69" t="s">
         <v>142</v>
-      </c>
-      <c r="C69" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -2279,10 +2291,10 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
+        <v>143</v>
+      </c>
+      <c r="C70" t="s">
         <v>144</v>
-      </c>
-      <c r="C70" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -2290,10 +2302,10 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
+        <v>145</v>
+      </c>
+      <c r="C71" t="s">
         <v>146</v>
-      </c>
-      <c r="C71" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -2301,10 +2313,10 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
+        <v>147</v>
+      </c>
+      <c r="C72" t="s">
         <v>148</v>
-      </c>
-      <c r="C72" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -2312,10 +2324,10 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
+        <v>149</v>
+      </c>
+      <c r="C73" t="s">
         <v>150</v>
-      </c>
-      <c r="C73" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -2323,10 +2335,10 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
+        <v>151</v>
+      </c>
+      <c r="C74" t="s">
         <v>152</v>
-      </c>
-      <c r="C74" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -2334,10 +2346,10 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
+        <v>153</v>
+      </c>
+      <c r="C75" t="s">
         <v>154</v>
-      </c>
-      <c r="C75" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -2345,10 +2357,10 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
+        <v>155</v>
+      </c>
+      <c r="C76" t="s">
         <v>156</v>
-      </c>
-      <c r="C76" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -2356,10 +2368,10 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
+        <v>157</v>
+      </c>
+      <c r="C77" t="s">
         <v>158</v>
-      </c>
-      <c r="C77" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -2367,10 +2379,10 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
+        <v>159</v>
+      </c>
+      <c r="C78" t="s">
         <v>160</v>
-      </c>
-      <c r="C78" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -2378,10 +2390,10 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
+        <v>161</v>
+      </c>
+      <c r="C79" t="s">
         <v>162</v>
-      </c>
-      <c r="C79" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -2389,10 +2401,10 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
+        <v>163</v>
+      </c>
+      <c r="C80" t="s">
         <v>164</v>
-      </c>
-      <c r="C80" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -2400,10 +2412,10 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
+        <v>165</v>
+      </c>
+      <c r="C81" t="s">
         <v>166</v>
-      </c>
-      <c r="C81" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -2411,10 +2423,10 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
+        <v>167</v>
+      </c>
+      <c r="C82" t="s">
         <v>168</v>
-      </c>
-      <c r="C82" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -2422,10 +2434,10 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
+        <v>169</v>
+      </c>
+      <c r="C83" t="s">
         <v>170</v>
-      </c>
-      <c r="C83" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -2433,10 +2445,10 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
+        <v>171</v>
+      </c>
+      <c r="C84" t="s">
         <v>172</v>
-      </c>
-      <c r="C84" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -2444,10 +2456,10 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
+        <v>173</v>
+      </c>
+      <c r="C85" t="s">
         <v>174</v>
-      </c>
-      <c r="C85" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -2455,10 +2467,10 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
+        <v>175</v>
+      </c>
+      <c r="C86" t="s">
         <v>176</v>
-      </c>
-      <c r="C86" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -2466,10 +2478,10 @@
         <v>87</v>
       </c>
       <c r="B87" t="s">
+        <v>177</v>
+      </c>
+      <c r="C87" t="s">
         <v>178</v>
-      </c>
-      <c r="C87" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -2477,10 +2489,10 @@
         <v>88</v>
       </c>
       <c r="B88" t="s">
+        <v>179</v>
+      </c>
+      <c r="C88" t="s">
         <v>180</v>
-      </c>
-      <c r="C88" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -2488,10 +2500,10 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
+        <v>181</v>
+      </c>
+      <c r="C89" t="s">
         <v>182</v>
-      </c>
-      <c r="C89" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -2499,10 +2511,10 @@
         <v>90</v>
       </c>
       <c r="B90" t="s">
+        <v>183</v>
+      </c>
+      <c r="C90" t="s">
         <v>184</v>
-      </c>
-      <c r="C90" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -2510,10 +2522,10 @@
         <v>91</v>
       </c>
       <c r="B91" t="s">
+        <v>185</v>
+      </c>
+      <c r="C91" t="s">
         <v>186</v>
-      </c>
-      <c r="C91" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -2521,10 +2533,10 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
+        <v>187</v>
+      </c>
+      <c r="C92" t="s">
         <v>188</v>
-      </c>
-      <c r="C92" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -2532,10 +2544,10 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
+        <v>189</v>
+      </c>
+      <c r="C93" t="s">
         <v>190</v>
-      </c>
-      <c r="C93" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -2543,10 +2555,10 @@
         <v>94</v>
       </c>
       <c r="B94" t="s">
+        <v>191</v>
+      </c>
+      <c r="C94" t="s">
         <v>192</v>
-      </c>
-      <c r="C94" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -2554,10 +2566,10 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
+        <v>193</v>
+      </c>
+      <c r="C95" t="s">
         <v>194</v>
-      </c>
-      <c r="C95" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -2565,10 +2577,10 @@
         <v>96</v>
       </c>
       <c r="B96" t="s">
+        <v>195</v>
+      </c>
+      <c r="C96" t="s">
         <v>196</v>
-      </c>
-      <c r="C96" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -2576,10 +2588,10 @@
         <v>97</v>
       </c>
       <c r="B97" t="s">
+        <v>197</v>
+      </c>
+      <c r="C97" t="s">
         <v>198</v>
-      </c>
-      <c r="C97" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -2587,10 +2599,10 @@
         <v>98</v>
       </c>
       <c r="B98" t="s">
+        <v>199</v>
+      </c>
+      <c r="C98" t="s">
         <v>200</v>
-      </c>
-      <c r="C98" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -2598,10 +2610,10 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
+        <v>201</v>
+      </c>
+      <c r="C99" t="s">
         <v>202</v>
-      </c>
-      <c r="C99" t="s">
-        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -2610,6 +2622,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101004A28CA176F0A4440897C94835471F5DC" ma:contentTypeVersion="2" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="12de65b5981a0d931c95c038d8c72dfe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8eb39577-5af7-4064-893e-16aba828f311" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1c8b83da358176e7bbc638ea083bc7d4" ns2:_="">
     <xsd:import namespace="8eb39577-5af7-4064-893e-16aba828f311"/>
@@ -2757,15 +2778,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2773,6 +2785,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85965A7A-3DBA-4538-8515-EACE76FF484B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62369AB4-A716-4338-8FB1-ECBBBFF98B63}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2790,14 +2810,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85965A7A-3DBA-4538-8515-EACE76FF484B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD5C8350-A767-40EF-9E17-1032A175797A}">
   <ds:schemaRefs>

--- a/04_Private-Cloud/wg1.38.xlsx
+++ b/04_Private-Cloud/wg1.38.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sm\Documents\Project-Future\04_Private-Cloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF8542E-7205-4EE9-9427-EDE9195F301F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26EF876-BA21-402C-BA8F-388545EE4C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="0" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
   <si>
     <t>Schmidli</t>
   </si>
@@ -652,6 +652,9 @@
   </si>
   <si>
     <t>VM MAAS DE4</t>
+  </si>
+  <si>
+    <t>VM Azure FE1</t>
   </si>
 </sst>
 </file>
@@ -1494,13 +1497,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="53.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2121,6 +2125,9 @@
       </c>
       <c r="C55" t="s">
         <v>114</v>
+      </c>
+      <c r="D55" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -2622,15 +2629,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101004A28CA176F0A4440897C94835471F5DC" ma:contentTypeVersion="2" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="12de65b5981a0d931c95c038d8c72dfe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8eb39577-5af7-4064-893e-16aba828f311" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1c8b83da358176e7bbc638ea083bc7d4" ns2:_="">
     <xsd:import namespace="8eb39577-5af7-4064-893e-16aba828f311"/>
@@ -2778,6 +2776,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2785,14 +2792,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85965A7A-3DBA-4538-8515-EACE76FF484B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62369AB4-A716-4338-8FB1-ECBBBFF98B63}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2810,6 +2809,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85965A7A-3DBA-4538-8515-EACE76FF484B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD5C8350-A767-40EF-9E17-1032A175797A}">
   <ds:schemaRefs>
